--- a/upload/orders/import_order.xlsx
+++ b/upload/orders/import_order.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\warrix\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUTOUCH\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F08AFA-114E-46D9-BA22-29AF69793304}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D479153-71E6-451A-88B5-2EA756713361}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B92B116-F9FB-40EE-9FD9-683B3F2B46EB}"/>
+    <workbookView xWindow="4125" yWindow="1680" windowWidth="21600" windowHeight="12345" xr2:uid="{FE465213-0906-4D88-899F-EDA1FCDD7915}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lot.3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lot.3!$A$1:$S$8</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Consignee Name</t>
   </si>
@@ -89,149 +86,117 @@
     <t>force update</t>
   </si>
   <si>
-    <t>Is DHL</t>
-  </si>
-  <si>
-    <t>LAZADA</t>
-  </si>
-  <si>
-    <t>CARD</t>
-  </si>
-  <si>
-    <t>Suda Sae Kow</t>
-  </si>
-  <si>
-    <t>160 ม.1 บ้านหนอวัวซอ ต.หนองวัวซอ</t>
-  </si>
-  <si>
-    <t>อุดรธานี/ Udon Thani</t>
-  </si>
-  <si>
-    <t>หนองวัวซอ/ Nong Wua So</t>
-  </si>
-  <si>
-    <t>660865802123</t>
-  </si>
-  <si>
-    <t>LA237526759618880</t>
-  </si>
-  <si>
-    <t>Surasit Phumruangsri</t>
-  </si>
-  <si>
-    <t>สถานีตำรวจภูธรศรีราชา</t>
-  </si>
-  <si>
-    <t>ชลบุรี/ Chonburi</t>
-  </si>
-  <si>
-    <t>ศรีราชา/ Si Racha</t>
-  </si>
-  <si>
-    <t>660898210722</t>
-  </si>
-  <si>
-    <t>LA237305014162422</t>
-  </si>
-  <si>
-    <t>วีระศักดิ์ ประดิษฐศร</t>
-  </si>
-  <si>
-    <t>บ.ยูไนเต็ด ไทย ดิสทิลเลอร์ส จำกัด 56 หมู่2 ถ.เทศบาล ต.นครชัยศรี</t>
-  </si>
-  <si>
-    <t>นครปฐม/ Nakhon Pathom</t>
-  </si>
-  <si>
-    <t>นครชัยศรี/ Nakhon Chai Si</t>
-  </si>
-  <si>
-    <t>660822428386</t>
-  </si>
-  <si>
-    <t>LA237310614280144</t>
-  </si>
-  <si>
-    <t>นายเฉลิมชัย  ประสมสิน</t>
-  </si>
-  <si>
-    <t>รพ.ยโสธร​ ฝ่ายเภสัชกรรม​ คลังยา​ ต.ตาดทอง</t>
-  </si>
-  <si>
-    <t>ยโสธร/ Yasothon</t>
-  </si>
-  <si>
-    <t>เมืองยโสธร/ Mueang Yasothon</t>
-  </si>
-  <si>
-    <t>660862458524</t>
-  </si>
-  <si>
-    <t>LA237636571764836</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>WA-19FT53M-DD-S</t>
-  </si>
-  <si>
-    <t>WA-19FT53M-DD-M</t>
-  </si>
-  <si>
-    <t>WA-19FT53M-DD-L</t>
-  </si>
-  <si>
-    <t>WA-19FT53M-DD-XL</t>
+    <t>กรรณิการ์ เลาแหลม</t>
+  </si>
+  <si>
+    <t>880 ซ.ดาราฉาย อ่อนนุช 46 แขวงสวนหลวง เขตสวนหลวง</t>
+  </si>
+  <si>
+    <t>12120</t>
+  </si>
+  <si>
+    <t>0890449634</t>
+  </si>
+  <si>
+    <t>TH-21071-48108738</t>
+  </si>
+  <si>
+    <t>2021-03-14</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>คุณอัญชลี  เนียรสุพรพรรณ</t>
+  </si>
+  <si>
+    <t>42/4 ม.8 ช.2/11คลองหลวงเมืองใหม่ ต.คลองสอง อ.คลองหลวง จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>0809292246</t>
+  </si>
+  <si>
+    <t>TH-21071-47969757</t>
+  </si>
+  <si>
+    <t>จันทนี พิกุลผล</t>
+  </si>
+  <si>
+    <t>36หมู่12 บ้านโคกพัฒนา. ต. ด่านขุนทด. อ. ด่านขุนทด. จ. นครราชสีมา</t>
+  </si>
+  <si>
+    <t>10700</t>
+  </si>
+  <si>
+    <t>0813083226</t>
+  </si>
+  <si>
+    <t>TH-21071-47884288</t>
+  </si>
+  <si>
+    <t>จุ๋ม จิ๋ม ปูนขุนทด</t>
+  </si>
+  <si>
+    <t>88/210 ซอย นาวิน ถนน เขื้อเพลิง แขวง ช่องนนทรี  เขต ยานนาวา กทม.</t>
+  </si>
+  <si>
+    <t>30210</t>
+  </si>
+  <si>
+    <t>0858228484</t>
+  </si>
+  <si>
+    <t>TH-21071-47894807</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>ทดสอบครั้งที่ 1</t>
+  </si>
+  <si>
+    <t>ทดสอบครั้งที่ 2</t>
+  </si>
+  <si>
+    <t>ทดสอบครั้งที่ 3</t>
+  </si>
+  <si>
+    <t>ทดสอบครั้งที่ 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="222"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,16 +211,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -569,36 +526,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4786C6A1-C821-4D9B-B994-7C3B9849B2C5}">
-  <dimension ref="A1:S8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572D6D49-3B3E-4A00-898F-49806CB899FB}">
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,13 +569,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -626,16 +584,16 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -654,334 +612,163 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2">
-        <v>41360</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2">
-        <v>43609.675740740742</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>46</v>
+      <c r="M2" t="s">
+        <v>24</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2">
-        <v>399</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>180</v>
+      </c>
+      <c r="S2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3">
-        <v>20110</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2">
-        <v>43609.509895833333</v>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3">
-        <v>199</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>180</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4">
-        <v>73120</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="2">
-        <v>43609.535925925928</v>
+      <c r="J4" t="s">
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4">
-        <v>199</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4">
+        <v>180</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5">
-        <v>35000</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="2">
-        <v>43609.545613425929</v>
+      <c r="J5" t="s">
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
-      <c r="O5">
-        <v>399</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6">
-        <v>35000</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="2">
-        <v>43609.545613425929</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>180</v>
+      </c>
+      <c r="S5" t="s">
         <v>45</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>399</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7">
-        <v>35000</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="2">
-        <v>43609.545613425929</v>
-      </c>
-      <c r="K7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>399</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8">
-        <v>35000</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="2">
-        <v>43609.545613425929</v>
-      </c>
-      <c r="K8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>390</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S8" xr:uid="{6841033E-AD5D-45DD-ACB3-7C7BCE87AEC0}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/upload/orders/import_order.xlsx
+++ b/upload/orders/import_order.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUTOUCH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUTOUCH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D479153-71E6-451A-88B5-2EA756713361}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EAB313-4A5A-4E89-B5C8-CB8047776F35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="1680" windowWidth="21600" windowHeight="12345" xr2:uid="{FE465213-0906-4D88-899F-EDA1FCDD7915}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>Consignee Name</t>
   </si>
@@ -86,109 +76,99 @@
     <t>force update</t>
   </si>
   <si>
-    <t>กรรณิการ์ เลาแหลม</t>
-  </si>
-  <si>
-    <t>880 ซ.ดาราฉาย อ่อนนุช 46 แขวงสวนหลวง เขตสวนหลวง</t>
-  </si>
-  <si>
-    <t>12120</t>
-  </si>
-  <si>
-    <t>0890449634</t>
-  </si>
-  <si>
-    <t>TH-21071-48108738</t>
-  </si>
-  <si>
-    <t>2021-03-14</t>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>นลินี หงษ์ทอง</t>
+  </si>
+  <si>
+    <t>สุกัญญา แก้วบุตตา</t>
+  </si>
+  <si>
+    <t>ชยาภา โสดานิล</t>
+  </si>
+  <si>
+    <t>นงนุช กลิ่นผล</t>
+  </si>
+  <si>
+    <t>65 ถนนช่องแคพัฒนา ต.ช่องแค</t>
+  </si>
+  <si>
+    <t>35  ม.11  ต.นาราชควาย อ.เมือง</t>
+  </si>
+  <si>
+    <t>226 หมู่ 8 ตำบลห้วยแห้ง</t>
+  </si>
+  <si>
+    <t>99/4 ม.3 ต.ศาลายา อ.พุทธมณฑล จ.นครปฐม</t>
+  </si>
+  <si>
+    <t>นครสวรรค์/ Nakhon Sawan</t>
+  </si>
+  <si>
+    <t>ตาคลี/ Takhli</t>
+  </si>
+  <si>
+    <t>นครพนม/ Nakhon Phanom</t>
+  </si>
+  <si>
+    <t>เมืองนครพนม/ Mueng Nakornpanom</t>
+  </si>
+  <si>
+    <t>สระบุรี/ Saraburi</t>
+  </si>
+  <si>
+    <t>แก่งคอย/ Kaeng Khoi</t>
+  </si>
+  <si>
+    <t>นครปฐม/ Nakhon Pathom</t>
+  </si>
+  <si>
+    <t>พุทธมณฑล/ Phutthamonthon</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                            </t>
+  </si>
+  <si>
+    <t>006</t>
   </si>
   <si>
     <t>001</t>
   </si>
   <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>คุณอัญชลี  เนียรสุพรพรรณ</t>
-  </si>
-  <si>
-    <t>42/4 ม.8 ช.2/11คลองหลวงเมืองใหม่ ต.คลองสอง อ.คลองหลวง จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>0809292246</t>
-  </si>
-  <si>
-    <t>TH-21071-47969757</t>
-  </si>
-  <si>
-    <t>จันทนี พิกุลผล</t>
-  </si>
-  <si>
-    <t>36หมู่12 บ้านโคกพัฒนา. ต. ด่านขุนทด. อ. ด่านขุนทด. จ. นครราชสีมา</t>
-  </si>
-  <si>
-    <t>10700</t>
-  </si>
-  <si>
-    <t>0813083226</t>
-  </si>
-  <si>
-    <t>TH-21071-47884288</t>
-  </si>
-  <si>
-    <t>จุ๋ม จิ๋ม ปูนขุนทด</t>
-  </si>
-  <si>
-    <t>88/210 ซอย นาวิน ถนน เขื้อเพลิง แขวง ช่องนนทรี  เขต ยานนาวา กทม.</t>
-  </si>
-  <si>
-    <t>30210</t>
-  </si>
-  <si>
-    <t>0858228484</t>
-  </si>
-  <si>
-    <t>TH-21071-47894807</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>ทดสอบครั้งที่ 1</t>
-  </si>
-  <si>
-    <t>ทดสอบครั้งที่ 2</t>
-  </si>
-  <si>
-    <t>ทดสอบครั้งที่ 3</t>
-  </si>
-  <si>
-    <t>ทดสอบครั้งที่ 4</t>
+    <t>Test Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Open Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -207,18 +187,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00F0F0F0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00F5F0F0"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="00F8F8FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00708090"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -517,258 +620,834 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572D6D49-3B3E-4A00-898F-49806CB899FB}">
-  <dimension ref="A1:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="17" width="10.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="12.140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
-        <v>41</v>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5">
+        <v>60210</v>
+      </c>
+      <c r="H2" s="5">
+        <v>660895586660</v>
+      </c>
+      <c r="I2" s="6">
+        <v>375216375125568</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>75</v>
+      </c>
+      <c r="P2" s="4">
+        <v>22.33</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5">
+        <v>60210</v>
+      </c>
+      <c r="H3" s="5">
+        <v>660895586660</v>
+      </c>
+      <c r="I3" s="6">
+        <v>375216375125568</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>75</v>
+      </c>
+      <c r="P3" s="4">
+        <v>22.33</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5">
+        <v>60210</v>
+      </c>
+      <c r="H4" s="5">
+        <v>660895586660</v>
+      </c>
+      <c r="I4" s="6">
+        <v>375216375125568</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>75</v>
+      </c>
+      <c r="P4" s="4">
+        <v>22.33</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5">
+        <v>60210</v>
+      </c>
+      <c r="H5" s="5">
+        <v>660895586660</v>
+      </c>
+      <c r="I5" s="6">
+        <v>375216375125568</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>75</v>
+      </c>
+      <c r="P5" s="4">
+        <v>22.33</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5">
+        <v>60210</v>
+      </c>
+      <c r="H6" s="5">
+        <v>660895586660</v>
+      </c>
+      <c r="I6" s="6">
+        <v>375216375125568</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>75</v>
+      </c>
+      <c r="P6" s="4">
+        <v>22.33</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5">
+        <v>60210</v>
+      </c>
+      <c r="H7" s="5">
+        <v>660895586660</v>
+      </c>
+      <c r="I7" s="6">
+        <v>375216375125568</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>75</v>
+      </c>
+      <c r="P7" s="4">
+        <v>22.35</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5">
+        <v>48000</v>
+      </c>
+      <c r="H8" s="5">
+        <v>660928863464</v>
+      </c>
+      <c r="I8" s="6">
+        <v>375268762263240</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>102</v>
+      </c>
+      <c r="P8" s="4">
+        <v>52</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5">
+        <v>48000</v>
+      </c>
+      <c r="H9" s="5">
+        <v>660928863464</v>
+      </c>
+      <c r="I9" s="6">
+        <v>375268762263240</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>102</v>
+      </c>
+      <c r="P9" s="4">
+        <v>52</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5">
+        <v>18110</v>
+      </c>
+      <c r="H10" s="5">
+        <v>660889485352</v>
+      </c>
+      <c r="I10" s="6">
+        <v>374108406547202</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>75</v>
+      </c>
+      <c r="P10" s="4">
+        <v>64</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2">
-        <v>180</v>
-      </c>
-      <c r="S2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3">
-        <v>180</v>
-      </c>
-      <c r="S3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F11" s="5">
+        <v>73170</v>
+      </c>
+      <c r="H11" s="5">
+        <v>660824762565</v>
+      </c>
+      <c r="I11" s="6">
+        <v>374185652983714</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4">
-        <v>180</v>
-      </c>
-      <c r="S4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
+      <c r="K11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <v>80</v>
+      </c>
+      <c r="P11" s="4">
+        <v>50</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="J13" s="7"/>
+      <c r="K13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5">
-        <v>180</v>
-      </c>
-      <c r="S5" t="s">
-        <v>45</v>
-      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="10:10">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="10:10">
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="10:10">
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="10:10">
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="10:10">
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="10:10">
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="10:10">
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="10:10">
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="10:10">
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="10:10">
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="10:10">
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="10:10">
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="10:10">
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="10:10">
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="10:10">
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="10:10">
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="10:10">
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="10:10">
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="10:10">
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="10:10">
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="10:10">
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="10:10">
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="10:10">
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="10:10">
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="10:10">
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="10:10">
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="10:10">
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="10:10">
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="10:10">
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="10:10">
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="10:10">
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="10:10">
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="10:10">
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="10:10">
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="10:10">
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" spans="10:10">
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="10:10">
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="10:10">
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="10:10">
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" spans="10:10">
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="10:10">
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" spans="10:10">
+      <c r="J77" s="7"/>
+    </row>
+    <row r="78" spans="10:10">
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="10:10">
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="10:10">
+      <c r="J80" s="7"/>
+    </row>
+    <row r="81" spans="10:10">
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82" s="7"/>
+    </row>
+    <row r="83" spans="10:10">
+      <c r="J83" s="7"/>
+    </row>
+    <row r="84" spans="10:10">
+      <c r="J84" s="7"/>
+    </row>
+    <row r="85" spans="10:10">
+      <c r="J85" s="7"/>
+    </row>
+    <row r="86" spans="10:10">
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" spans="10:10">
+      <c r="J87" s="7"/>
+    </row>
+    <row r="88" spans="10:10">
+      <c r="J88" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>